--- a/forecast_summary_B0C3Z74ZP5.xlsx
+++ b/forecast_summary_B0C3Z74ZP5.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,37 +438,42 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>yhat</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Product Title</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>is_holiday_week</t>
         </is>
       </c>
     </row>
@@ -477,32 +482,35 @@
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
+        <v>-1.153565525019504</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25.19613876293539</v>
+      </c>
+      <c r="E2" t="n">
         <v>36</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>41</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>60</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>94</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>B0C3Z74ZP5</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>M27U SA</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>B0C3Z74ZP5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>M27U SA</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -510,32 +518,35 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
+        <v>-3.835340764728483</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.56947875440586</v>
+      </c>
+      <c r="E3" t="n">
         <v>45</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>49</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>75</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>124</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>B0C3Z74ZP5</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>M27U SA</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>B0C3Z74ZP5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>M27U SA</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -543,32 +554,35 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
+        <v>-7.340376882816479</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.56118821012563</v>
+      </c>
+      <c r="E4" t="n">
         <v>43</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>47</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>72</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>118</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>B0C3Z74ZP5</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>M27U SA</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>B0C3Z74ZP5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>M27U SA</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -576,32 +590,35 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>-10.54498766688688</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.8696996605696</v>
+      </c>
+      <c r="E5" t="n">
         <v>53</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>58</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>88</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>143</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>B0C3Z74ZP5</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>M27U SA</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>B0C3Z74ZP5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>M27U SA</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -609,32 +626,35 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
+        <v>-10.33275839654204</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.78978630861512</v>
+      </c>
+      <c r="E6" t="n">
         <v>32</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
         <v>29</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>50</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>93</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>B0C3Z74ZP5</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>M27U SA</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>B0C3Z74ZP5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>M27U SA</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -642,32 +662,35 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
+        <v>-5.795890754234827</v>
+      </c>
+      <c r="D7" t="n">
+        <v>19.76962434863361</v>
+      </c>
+      <c r="E7" t="n">
         <v>21</v>
       </c>
-      <c r="D7" t="n">
+      <c r="F7" t="n">
         <v>19</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>34</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>63</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>B0C3Z74ZP5</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>M27U SA</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>B0C3Z74ZP5</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>M27U SA</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -675,32 +698,35 @@
         <v>45669</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n">
+        <v>-0.5647693984439303</v>
+      </c>
+      <c r="D8" t="n">
+        <v>25.61043414908379</v>
+      </c>
+      <c r="E8" t="n">
         <v>19</v>
       </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
         <v>16</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>29</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>59</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>B0C3Z74ZP5</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>M27U SA</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>B0C3Z74ZP5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>M27U SA</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -708,32 +734,35 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
+        <v>0.725348532893313</v>
+      </c>
+      <c r="D9" t="n">
+        <v>26.36443793790914</v>
+      </c>
+      <c r="E9" t="n">
         <v>17</v>
       </c>
-      <c r="D9" t="n">
+      <c r="F9" t="n">
         <v>10</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>23</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>54</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>B0C3Z74ZP5</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>M27U SA</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>B0C3Z74ZP5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>M27U SA</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -741,32 +770,35 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
+        <v>-2.252285059949133</v>
+      </c>
+      <c r="D10" t="n">
+        <v>22.53428698856858</v>
+      </c>
+      <c r="E10" t="n">
         <v>18</v>
       </c>
-      <c r="D10" t="n">
+      <c r="F10" t="n">
         <v>15</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>27</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>53</v>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>B0C3Z74ZP5</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>M27U SA</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>B0C3Z74ZP5</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>M27U SA</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -774,32 +806,35 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
+        <v>-5.365200699701636</v>
+      </c>
+      <c r="D11" t="n">
+        <v>21.18089286452273</v>
+      </c>
+      <c r="E11" t="n">
         <v>17</v>
       </c>
-      <c r="D11" t="n">
+      <c r="F11" t="n">
         <v>12</v>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
         <v>24</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>52</v>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>B0C3Z74ZP5</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>M27U SA</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>B0C3Z74ZP5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>M27U SA</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -807,32 +842,35 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
+        <v>-5.284879625755269</v>
+      </c>
+      <c r="D12" t="n">
+        <v>18.87927286236927</v>
+      </c>
+      <c r="E12" t="n">
         <v>18</v>
       </c>
-      <c r="D12" t="n">
+      <c r="F12" t="n">
         <v>16</v>
       </c>
-      <c r="E12" t="n">
+      <c r="G12" t="n">
         <v>28</v>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
         <v>54</v>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>B0C3Z74ZP5</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>M27U SA</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>B0C3Z74ZP5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>M27U SA</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -840,32 +878,35 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
+        <v>-3.199249854977007</v>
+      </c>
+      <c r="D13" t="n">
+        <v>22.91607931534728</v>
+      </c>
+      <c r="E13" t="n">
         <v>18</v>
       </c>
-      <c r="D13" t="n">
+      <c r="F13" t="n">
         <v>16</v>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
         <v>29</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
         <v>55</v>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>B0C3Z74ZP5</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>M27U SA</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>B0C3Z74ZP5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>M27U SA</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -873,32 +914,35 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
+        <v>-2.262670484424835</v>
+      </c>
+      <c r="D14" t="n">
+        <v>24.10187984739822</v>
+      </c>
+      <c r="E14" t="n">
         <v>18</v>
       </c>
-      <c r="D14" t="n">
+      <c r="F14" t="n">
         <v>14</v>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
         <v>27</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>53</v>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>B0C3Z74ZP5</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>M27U SA</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>B0C3Z74ZP5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>M27U SA</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -906,32 +950,35 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
+        <v>-2.748034790515838</v>
+      </c>
+      <c r="D15" t="n">
+        <v>21.44425932365485</v>
+      </c>
+      <c r="E15" t="n">
         <v>17</v>
       </c>
-      <c r="D15" t="n">
+      <c r="F15" t="n">
         <v>13</v>
       </c>
-      <c r="E15" t="n">
+      <c r="G15" t="n">
         <v>25</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
         <v>50</v>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>B0C3Z74ZP5</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>M27U SA</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>B0C3Z74ZP5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>M27U SA</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -939,32 +986,35 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
+        <v>-1.921098657870955</v>
+      </c>
+      <c r="D16" t="n">
+        <v>23.4691457603513</v>
+      </c>
+      <c r="E16" t="n">
         <v>19</v>
       </c>
-      <c r="D16" t="n">
+      <c r="F16" t="n">
         <v>17</v>
       </c>
-      <c r="E16" t="n">
+      <c r="G16" t="n">
         <v>30</v>
       </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
         <v>55</v>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>B0C3Z74ZP5</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>M27U SA</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>B0C3Z74ZP5</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>M27U SA</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -972,32 +1022,35 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C17" t="n">
+        <v>1.215783913854561</v>
+      </c>
+      <c r="D17" t="n">
+        <v>26.57006027562467</v>
+      </c>
+      <c r="E17" t="n">
         <v>17</v>
       </c>
-      <c r="D17" t="n">
+      <c r="F17" t="n">
         <v>15</v>
       </c>
-      <c r="E17" t="n">
+      <c r="G17" t="n">
         <v>27</v>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
         <v>52</v>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>B0C3Z74ZP5</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>M27U SA</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>B0C3Z74ZP5</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>M27U SA</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1005,32 +1058,35 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" t="n">
+        <v>3.347125640009585</v>
+      </c>
+      <c r="D18" t="n">
+        <v>29.45414757464814</v>
+      </c>
+      <c r="E18" t="n">
         <v>16</v>
       </c>
-      <c r="D18" t="n">
+      <c r="F18" t="n">
         <v>11</v>
       </c>
-      <c r="E18" t="n">
+      <c r="G18" t="n">
         <v>23</v>
       </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
         <v>48</v>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>B0C3Z74ZP5</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>M27U SA</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>B0C3Z74ZP5</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>M27U SA</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1038,32 +1094,35 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C19" t="n">
+        <v>0.6983387706727221</v>
+      </c>
+      <c r="D19" t="n">
+        <v>25.6243064701293</v>
+      </c>
+      <c r="E19" t="n">
         <v>16</v>
       </c>
-      <c r="D19" t="n">
+      <c r="F19" t="n">
         <v>13</v>
       </c>
-      <c r="E19" t="n">
+      <c r="G19" t="n">
         <v>24</v>
       </c>
-      <c r="F19" t="n">
+      <c r="H19" t="n">
         <v>47</v>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>B0C3Z74ZP5</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>M27U SA</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>B0C3Z74ZP5</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>M27U SA</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1071,32 +1130,35 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
+        <v>-5.552246023680228</v>
+      </c>
+      <c r="D20" t="n">
+        <v>20.34578718790973</v>
+      </c>
+      <c r="E20" t="n">
         <v>16</v>
       </c>
-      <c r="D20" t="n">
+      <c r="F20" t="n">
         <v>14</v>
       </c>
-      <c r="E20" t="n">
+      <c r="G20" t="n">
         <v>25</v>
       </c>
-      <c r="F20" t="n">
+      <c r="H20" t="n">
         <v>49</v>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>B0C3Z74ZP5</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>M27U SA</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>B0C3Z74ZP5</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>M27U SA</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1104,32 +1166,35 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
+        <v>-9.883571721869068</v>
+      </c>
+      <c r="D21" t="n">
+        <v>15.75950469147697</v>
+      </c>
+      <c r="E21" t="n">
         <v>15</v>
       </c>
-      <c r="D21" t="n">
+      <c r="F21" t="n">
         <v>12</v>
       </c>
-      <c r="E21" t="n">
+      <c r="G21" t="n">
         <v>22</v>
       </c>
-      <c r="F21" t="n">
+      <c r="H21" t="n">
         <v>45</v>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>B0C3Z74ZP5</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>M27U SA</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>B0C3Z74ZP5</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>M27U SA</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1255,7 +1320,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>101</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1332,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1344,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1356,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -1315,7 +1380,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
